--- a/Specifications/Training Update Data Elements.xlsx
+++ b/Specifications/Training Update Data Elements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insuredretirementinstitute.sharepoint.com/sites/OPSLeaders/Shared Documents/General/Digital First _KD/L, A, And T/Training Update/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x272666/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="14_{57B19DCE-0465-47E6-B47B-BD02EAC52B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7216744B-60E1-48A2-9D25-9D992C0F8777}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C1B338-6458-DA46-83BB-E50F3DAF6C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15090" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{FA1FA3F5-FC01-4788-A76A-EEB55E72AE00}"/>
+    <workbookView xWindow="34560" yWindow="-16020" windowWidth="51200" windowHeight="28300" firstSheet="1" activeTab="1" xr2:uid="{FA1FA3F5-FC01-4788-A76A-EEB55E72AE00}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Objective" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
   <si>
     <t>Objective</t>
   </si>
@@ -415,6 +415,81 @@
   <si>
     <t>Conditional on it being CE training
 Allow multiple states due to reciprocity</t>
+  </si>
+  <si>
+    <t>PartnerId</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>nationalProducerNumber</t>
+  </si>
+  <si>
+    <t>Pru API Field</t>
+  </si>
+  <si>
+    <t>Missing from DTCC: courseProviderId, vendorId</t>
+  </si>
+  <si>
+    <t>courseType (Product, State, Best Interest)</t>
+  </si>
+  <si>
+    <t>trainingMethod(OnlineTraining, Classroom, ReferenceMaterials, Wholesaler)</t>
+  </si>
+  <si>
+    <t>courseNumber</t>
+  </si>
+  <si>
+    <t>completionDate</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>productTrainingCategory(FixedDeferredAnnuity
+                  - AllInsuranceProducts
+                  - VariableFixedDeferredAnnuity
+                  - LongTermDisability
+                  - EquityIndexAnnuity
+                  - FixedImmediateAnnuity
+                  - VariableImmediateAnnuity
+                  - LongTermCare
+                  - N/A
+                  - PartnershipDisability
+                  - Life
+                  - VariableDeferredAnnuity
+                  - AllAnnuities
+                  - AllFixedAnnuities
+                  - AllVariableAnnuities)</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Notes: Courses is an array of Course objects</t>
+  </si>
+  <si>
+    <t>expiryDate</t>
+  </si>
+  <si>
+    <t>creditHours</t>
+  </si>
+  <si>
+    <t>certificationDate</t>
+  </si>
+  <si>
+    <t>certificationNumber</t>
+  </si>
+  <si>
+    <t>courseProviderId (Mandatory)
+vendorId (Mandatory)</t>
+  </si>
+  <si>
+    <t>GAP</t>
+  </si>
+  <si>
+    <t>we only train brokers(?)</t>
   </si>
 </sst>
 </file>
@@ -471,7 +546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +607,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -561,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -618,6 +699,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -941,73 +1031,73 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="105.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="105.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="2" customWidth="1"/>
     <col min="3" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="85" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1020,26 +1110,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6BAF81-1D70-426A-BD41-9AED2ED3949E}">
-  <dimension ref="A1:AT268"/>
+  <dimension ref="A1:AU268"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" style="10" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="76.5546875" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.33203125" style="5"/>
+    <col min="4" max="4" width="21.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="76.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="38" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
@@ -1061,9 +1154,13 @@
       <c r="G1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="H1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="20"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
@@ -1100,8 +1197,9 @@
       <c r="AR1" s="12"/>
       <c r="AS1" s="12"/>
       <c r="AT1" s="12"/>
-    </row>
-    <row r="2" spans="1:46" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AU1" s="12"/>
+    </row>
+    <row r="2" spans="1:47" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1113,9 +1211,9 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -1152,8 +1250,9 @@
       <c r="AR2" s="5"/>
       <c r="AS2" s="5"/>
       <c r="AT2" s="5"/>
-    </row>
-    <row r="3" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AU2" s="5"/>
+    </row>
+    <row r="3" spans="1:47" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -1169,8 +1268,11 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:46" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:47" ht="176" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -1190,8 +1292,13 @@
         <v>26</v>
       </c>
       <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H4" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:47" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -1209,8 +1316,13 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:47" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>31</v>
       </c>
@@ -1220,9 +1332,9 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -1259,8 +1371,9 @@
       <c r="AR6" s="5"/>
       <c r="AS6" s="5"/>
       <c r="AT6" s="5"/>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU6" s="5"/>
+    </row>
+    <row r="7" spans="1:47" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
@@ -1276,8 +1389,13 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="H7" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:47" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -1293,8 +1411,13 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:46" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:47" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
@@ -1314,8 +1437,13 @@
         <v>42</v>
       </c>
       <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H9" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:47" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>43</v>
       </c>
@@ -1333,8 +1461,17 @@
         <v>46</v>
       </c>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>47</v>
       </c>
@@ -1344,9 +1481,15 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="H11" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -1383,8 +1526,9 @@
       <c r="AR11" s="5"/>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
-    </row>
-    <row r="12" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AU11" s="5"/>
+    </row>
+    <row r="12" spans="1:47" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
@@ -1404,8 +1548,13 @@
         <v>51</v>
       </c>
       <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H12" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:47" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
@@ -1423,8 +1572,13 @@
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="H13" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:47" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
@@ -1440,8 +1594,15 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="H14" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:47" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>59</v>
       </c>
@@ -1457,8 +1618,15 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H15" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:47" ht="96" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>62</v>
       </c>
@@ -1476,8 +1644,15 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>66</v>
       </c>
@@ -1495,8 +1670,15 @@
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H17" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>70</v>
       </c>
@@ -1516,8 +1698,13 @@
         <v>73</v>
       </c>
       <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H18" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>74</v>
       </c>
@@ -1535,8 +1722,13 @@
         <v>97</v>
       </c>
       <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="H19" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" ht="272" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>77</v>
       </c>
@@ -1554,8 +1746,15 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:10" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>80</v>
       </c>
@@ -1571,8 +1770,15 @@
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>83</v>
       </c>
@@ -1588,8 +1794,15 @@
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H22" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>85</v>
       </c>
@@ -1605,8 +1818,13 @@
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>88</v>
       </c>
@@ -1624,8 +1842,15 @@
         <v>96</v>
       </c>
       <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="1:10" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>90</v>
       </c>
@@ -1643,8 +1868,15 @@
         <v>96</v>
       </c>
       <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H25" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>92</v>
       </c>
@@ -1664,8 +1896,15 @@
         <v>102</v>
       </c>
       <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>94</v>
       </c>
@@ -1683,268 +1922,275 @@
         <v>96</v>
       </c>
       <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="202" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="203" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="204" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="205" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="206" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="207" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="208" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="209" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="210" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="211" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="212" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="214" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="215" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="216" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="218" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="220" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="221" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="222" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="223" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="224" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="225" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="226" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="227" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="228" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="229" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="230" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="231" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="232" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="233" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="234" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="235" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="236" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="237" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="238" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="239" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="240" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="241" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="242" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="243" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="244" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="245" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="246" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="247" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="248" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="249" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="250" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="251" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="252" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="253" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="254" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="255" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="256" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="257" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="258" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="259" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="260" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="261" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="262" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="263" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="264" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="265" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="266" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="267" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="268" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1961,6 +2207,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="15421740-46cd-401b-b22f-0b6c9da52387" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9fccc204-5713-4c78-a21d-59793ba36069">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B947405BA74E34ABF5F812EFCEDB6DE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6241294b9a2fdc81beebb30bdd327fba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fccc204-5713-4c78-a21d-59793ba36069" xmlns:ns3="15421740-46cd-401b-b22f-0b6c9da52387" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c07db4645306d115b559a8defbf6df5e" ns2:_="" ns3:_="">
     <xsd:import namespace="9fccc204-5713-4c78-a21d-59793ba36069"/>
@@ -2195,17 +2452,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="15421740-46cd-401b-b22f-0b6c9da52387" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9fccc204-5713-4c78-a21d-59793ba36069">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6221DB01-12D5-469C-ACB2-56C7F151ACB2}">
   <ds:schemaRefs>
@@ -2215,6 +2461,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DF414D9-0734-41E9-B41A-946F76B06C6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9fccc204-5713-4c78-a21d-59793ba36069"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="15421740-46cd-401b-b22f-0b6c9da52387"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52627F7E-8F6A-4BC5-B2ED-A47890EC2686}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2231,21 +2494,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DF414D9-0734-41E9-B41A-946F76B06C6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9fccc204-5713-4c78-a21d-59793ba36069"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="15421740-46cd-401b-b22f-0b6c9da52387"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>